--- a/docs/shr-core-KarnofskyPerformanceStatus.xlsx
+++ b/docs/shr-core-KarnofskyPerformanceStatus.xlsx
@@ -709,7 +709,7 @@
     <t>Observation.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Patient], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Group], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Device], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Location]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Patient]]}
 </t>
   </si>
   <si>
@@ -813,7 +813,7 @@
     <t>Observation.performer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Practitioner], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Organization], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Patient], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-RelatedPerson]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Practitioner]]}
 </t>
   </si>
   <si>
@@ -937,7 +937,7 @@
     <t>preferred</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/projectURL/shr/core/vs/BodySiteVS</t>
+    <t>http://hl7.org/fhir/us/projectURL/shr/core/vs/BodyLocationVS</t>
   </si>
   <si>
     <t>OBX-20</t>
@@ -1517,7 +1517,7 @@
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="95.21875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="53.765625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="57.3515625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
@@ -6780,7 +6780,7 @@
         <v>40</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>42</v>
